--- a/final/损益表.xlsx
+++ b/final/损益表.xlsx
@@ -190,16 +190,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="7" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -499,7 +496,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -511,24 +508,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>2020</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>2021</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>2022</v>
       </c>
     </row>
@@ -536,13 +533,13 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>383895.28301886789</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>1618712.2641509434</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>6740411.3207547171</v>
       </c>
     </row>
@@ -550,13 +547,13 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>1485420</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>1744536</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>3299232</v>
       </c>
     </row>
@@ -564,44 +561,44 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>156384</v>
-      </c>
-      <c r="C5" s="3">
-        <v>156384</v>
-      </c>
-      <c r="D5" s="3">
-        <v>156384</v>
+      <c r="B5" s="6">
+        <v>166384</v>
+      </c>
+      <c r="C5" s="6">
+        <v>166384</v>
+      </c>
+      <c r="D5" s="6">
+        <v>166384</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <f>B3-B5-B4</f>
-        <v>-1257908.716981132</v>
-      </c>
-      <c r="C6" s="4">
+        <v>-1267908.716981132</v>
+      </c>
+      <c r="C6" s="3">
         <f t="shared" ref="C6:D6" si="0">C3-C5-C4</f>
-        <v>-282207.73584905663</v>
-      </c>
-      <c r="D6" s="4">
+        <v>-292207.73584905663</v>
+      </c>
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>3284795.3207547171</v>
+        <v>3274795.3207547171</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>138694.39999999999</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>83216.639999999999</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>49929.983999999997</v>
       </c>
     </row>
@@ -609,13 +606,13 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>23330.576000000001</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>23330.576000000001</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>23330.576000000001</v>
       </c>
     </row>
@@ -623,30 +620,30 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <f>B6-B7-B8</f>
-        <v>-1419933.6929811318</v>
-      </c>
-      <c r="C9" s="4">
+        <v>-1429933.6929811318</v>
+      </c>
+      <c r="C9" s="3">
         <f t="shared" ref="C9:D9" si="1">C6-C7-C8</f>
-        <v>-388754.95184905664</v>
-      </c>
-      <c r="D9" s="4">
+        <v>-398754.95184905664</v>
+      </c>
+      <c r="D9" s="3">
         <f t="shared" si="1"/>
-        <v>3211534.760754717</v>
+        <v>3201534.760754717</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>31770.833333333339</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>23330.576000000001</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>6770.8333333333585</v>
       </c>
     </row>
@@ -654,32 +651,32 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <f>B9-B10</f>
-        <v>-1451704.5263144651</v>
-      </c>
-      <c r="C11" s="4">
+        <v>-1461704.5263144651</v>
+      </c>
+      <c r="C11" s="3">
         <f t="shared" ref="C11:D11" si="2">C9-C10</f>
-        <v>-412085.52784905664</v>
-      </c>
-      <c r="D11" s="4">
+        <v>-422085.52784905664</v>
+      </c>
+      <c r="D11" s="3">
         <f t="shared" si="2"/>
-        <v>3204763.9274213836</v>
+        <v>3194763.9274213836</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <f>B11</f>
-        <v>-1451704.5263144651</v>
-      </c>
-      <c r="C12" s="7">
+        <v>-1461704.5263144651</v>
+      </c>
+      <c r="C12" s="6">
         <f>B12+C11</f>
-        <v>-1863790.0541635216</v>
-      </c>
-      <c r="D12" s="7">
+        <v>-1883790.0541635216</v>
+      </c>
+      <c r="D12" s="6">
         <v>0</v>
       </c>
     </row>
@@ -687,28 +684,28 @@
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
         <f>D11+C12</f>
-        <v>1340973.8732578619</v>
+        <v>1310973.8732578619</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>23033.716981132115</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>97122.735849056771</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>404424.67924528371</v>
       </c>
     </row>
@@ -716,15 +713,15 @@
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <f>B14*0.12</f>
         <v>2764.0460377358536</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f t="shared" ref="C15:D15" si="3">C14*0.12</f>
         <v>11654.728301886813</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <f t="shared" si="3"/>
         <v>48530.961509434041</v>
       </c>
@@ -733,28 +730,28 @@
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
         <f>D13*0.15</f>
-        <v>201146.08098867928</v>
+        <v>196646.08098867928</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="7">
-        <v>0</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
         <v>0</v>
       </c>
     </row>
@@ -762,49 +759,49 @@
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <f>B12+B13-B16-B15</f>
-        <v>-1454468.572352201</v>
-      </c>
-      <c r="C18" s="4">
+        <v>-1464468.572352201</v>
+      </c>
+      <c r="C18" s="3">
         <f t="shared" ref="C18:D18" si="4">C12+C13-C16-C15</f>
-        <v>-1875444.7824654083</v>
-      </c>
-      <c r="D18" s="4">
+        <v>-1895444.7824654083</v>
+      </c>
+      <c r="D18" s="3">
         <f t="shared" si="4"/>
-        <v>1091296.8307597486</v>
+        <v>1065796.8307597486</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="7">
-        <v>0</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
         <f>D18*0.2</f>
-        <v>218259.36615194974</v>
+        <v>213159.36615194974</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <f>B18-B19</f>
-        <v>-1454468.572352201</v>
-      </c>
-      <c r="C20" s="4">
+        <v>-1464468.572352201</v>
+      </c>
+      <c r="C20" s="3">
         <f t="shared" ref="C20:D20" si="5">C18-C19</f>
-        <v>-1875444.7824654083</v>
-      </c>
-      <c r="D20" s="4">
+        <v>-1895444.7824654083</v>
+      </c>
+      <c r="D20" s="3">
         <f t="shared" si="5"/>
-        <v>873037.46460779884</v>
+        <v>852637.46460779884</v>
       </c>
     </row>
   </sheetData>

--- a/final/损益表.xlsx
+++ b/final/损益表.xlsx
@@ -496,7 +496,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -760,16 +760,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="3">
-        <f>B12+B13-B16-B15</f>
+        <f>B11-B16-B15</f>
         <v>-1464468.572352201</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" ref="C18:D18" si="4">C12+C13-C16-C15</f>
-        <v>-1895444.7824654083</v>
+        <f>C11-C16-C15</f>
+        <v>-433740.25615094346</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="4"/>
-        <v>1065796.8307597486</v>
+        <f>D11-D16-D15</f>
+        <v>2949586.8849232704</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -784,7 +784,7 @@
       </c>
       <c r="D19" s="6">
         <f>D18*0.2</f>
-        <v>213159.36615194974</v>
+        <v>589917.37698465411</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
@@ -796,12 +796,12 @@
         <v>-1464468.572352201</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" ref="C20:D20" si="5">C18-C19</f>
-        <v>-1895444.7824654083</v>
+        <f t="shared" ref="C20:D20" si="4">C18-C19</f>
+        <v>-433740.25615094346</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="5"/>
-        <v>852637.46460779884</v>
+        <f t="shared" si="4"/>
+        <v>2359669.5079386164</v>
       </c>
     </row>
   </sheetData>

--- a/final/损益表.xlsx
+++ b/final/损益表.xlsx
@@ -496,7 +496,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -666,69 +666,68 @@
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6">
-        <f>B11</f>
-        <v>-1461704.5263144651</v>
+        <v>0</v>
       </c>
       <c r="C12" s="6">
-        <f>B12+C11</f>
-        <v>-1883790.0541635216</v>
+        <v>0</v>
       </c>
       <c r="D12" s="6">
-        <v>0</v>
+        <f>D11+C20</f>
+        <v>1296555.0989182391</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B13" s="6">
-        <v>0</v>
+        <v>23033.716981132115</v>
       </c>
       <c r="C13" s="6">
-        <v>0</v>
+        <v>97122.735849056771</v>
       </c>
       <c r="D13" s="6">
-        <f>D11+C12</f>
-        <v>1310973.8732578619</v>
+        <v>404424.67924528371</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="6">
-        <v>23033.716981132115</v>
+        <f>B13*0.12</f>
+        <v>2764.0460377358536</v>
       </c>
       <c r="C14" s="6">
-        <v>97122.735849056771</v>
+        <f t="shared" ref="C14:D14" si="3">C13*0.12</f>
+        <v>11654.728301886813</v>
       </c>
       <c r="D14" s="6">
-        <v>404424.67924528371</v>
+        <f t="shared" si="3"/>
+        <v>48530.961509434041</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="6">
-        <f>B14*0.12</f>
-        <v>2764.0460377358536</v>
+        <v>0</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" ref="C15:D15" si="3">C14*0.12</f>
-        <v>11654.728301886813</v>
+        <v>0</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="3"/>
-        <v>48530.961509434041</v>
+        <f>D12*0.15</f>
+        <v>194483.26483773586</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
@@ -737,71 +736,72 @@
         <v>0</v>
       </c>
       <c r="D16" s="6">
-        <f>D13*0.15</f>
-        <v>196646.08098867928</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="6">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="3">
-        <f>B11-B16-B15</f>
+      <c r="B17" s="3">
+        <f>B11-B15-B14</f>
         <v>-1464468.572352201</v>
       </c>
-      <c r="C18" s="3">
-        <f>C11-C16-C15</f>
+      <c r="C17" s="3">
+        <f>C11-C15-C14</f>
         <v>-433740.25615094346</v>
       </c>
-      <c r="D18" s="3">
-        <f>D11-D16-D15</f>
-        <v>2949586.8849232704</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="D17" s="3">
+        <f>D11-D15-D14</f>
+        <v>2951749.7010742137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="6">
-        <v>0</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
-        <f>D18*0.2</f>
-        <v>589917.37698465411</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <f>D17*0.2</f>
+        <v>590349.94021484279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="3">
-        <f>B18-B19</f>
+      <c r="B19" s="3">
+        <f>B17-B18</f>
         <v>-1464468.572352201</v>
       </c>
-      <c r="C20" s="3">
-        <f t="shared" ref="C20:D20" si="4">C18-C19</f>
+      <c r="C19" s="3">
+        <f t="shared" ref="C19:D19" si="4">C17-C18</f>
         <v>-433740.25615094346</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D19" s="3">
         <f t="shared" si="4"/>
-        <v>2359669.5079386164</v>
+        <v>2361399.7608593712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6">
+        <f>B19</f>
+        <v>-1464468.572352201</v>
+      </c>
+      <c r="C20" s="6">
+        <f>B20+C19</f>
+        <v>-1898208.8285031444</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/final/损益表.xlsx
+++ b/final/损益表.xlsx
@@ -493,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -505,6 +505,7 @@
     <col min="2" max="2" width="18.88671875" customWidth="1"/>
     <col min="3" max="3" width="40.88671875" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.6" x14ac:dyDescent="0.4">
@@ -540,7 +541,7 @@
         <v>1618712.2641509434</v>
       </c>
       <c r="D3" s="4">
-        <v>6740411.3207547171</v>
+        <v>7400782.0754716974</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -585,7 +586,7 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>3274795.3207547171</v>
+        <v>3935166.0754716974</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -630,7 +631,7 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
-        <v>3201534.760754717</v>
+        <v>3861905.5154716973</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -661,58 +662,59 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="2"/>
-        <v>3194763.9274213836</v>
+        <v>3855134.6821383638</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B12" s="6">
-        <v>0</v>
+        <f>B21*0.12</f>
+        <v>2764.0460377358536</v>
       </c>
       <c r="C12" s="6">
-        <v>0</v>
+        <f>C21*0.12</f>
+        <v>11654.728301886813</v>
       </c>
       <c r="D12" s="6">
-        <f>D11+C20</f>
-        <v>1296555.0989182391</v>
+        <f>D21*0.12</f>
+        <v>48530.961509434041</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B13" s="6">
-        <v>23033.716981132115</v>
+        <v>0</v>
       </c>
       <c r="C13" s="6">
-        <v>97122.735849056771</v>
+        <v>0</v>
       </c>
       <c r="D13" s="6">
-        <v>404424.67924528371</v>
+        <f>D11+C17-D12</f>
+        <v>1908394.8921257854</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="6">
-        <f>B13*0.12</f>
-        <v>2764.0460377358536</v>
+        <v>0</v>
       </c>
       <c r="C14" s="6">
-        <f t="shared" ref="C14:D14" si="3">C13*0.12</f>
-        <v>11654.728301886813</v>
+        <v>0</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" si="3"/>
-        <v>48530.961509434041</v>
+        <f>D13*0.15</f>
+        <v>286259.23381886777</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6">
         <v>0</v>
@@ -721,87 +723,86 @@
         <v>0</v>
       </c>
       <c r="D15" s="6">
-        <f>D12*0.15</f>
-        <v>194483.26483773586</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="3">
-        <f>B11-B15-B14</f>
+      <c r="B16" s="3">
+        <f>B11-B14-B12</f>
         <v>-1464468.572352201</v>
       </c>
-      <c r="C17" s="3">
-        <f>C11-C15-C14</f>
+      <c r="C16" s="3">
+        <f>C11-C14-C12</f>
         <v>-433740.25615094346</v>
       </c>
-      <c r="D17" s="3">
-        <f>D11-D15-D14</f>
-        <v>2951749.7010742137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="D16" s="3">
+        <f>D11-D14-D12</f>
+        <v>3520344.4868100621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6">
+        <f>B24</f>
+        <v>-1464468.572352201</v>
+      </c>
+      <c r="C17" s="6">
+        <f>B17+C24</f>
+        <v>-1898208.8285031444</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6">
+        <v>23033.716981132115</v>
+      </c>
+      <c r="C21" s="6">
+        <v>97122.735849056771</v>
+      </c>
+      <c r="D21" s="6">
+        <v>404424.67924528371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="6">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <f>D17*0.2</f>
-        <v>590349.94021484279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B23" s="6">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <f>D16*0.2</f>
+        <v>704068.89736201242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3">
-        <f>B17-B18</f>
+      <c r="B24" s="3">
+        <f>B16-B23</f>
         <v>-1464468.572352201</v>
       </c>
-      <c r="C19" s="3">
-        <f t="shared" ref="C19:D19" si="4">C17-C18</f>
+      <c r="C24" s="3">
+        <f>C16-C23</f>
         <v>-433740.25615094346</v>
       </c>
-      <c r="D19" s="3">
-        <f t="shared" si="4"/>
-        <v>2361399.7608593712</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="6">
-        <f>B19</f>
-        <v>-1464468.572352201</v>
-      </c>
-      <c r="C20" s="6">
-        <f>B20+C19</f>
-        <v>-1898208.8285031444</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0</v>
+      <c r="D24" s="3">
+        <f>D16-D23</f>
+        <v>2816275.5894480497</v>
       </c>
     </row>
   </sheetData>
